--- a/data/trans_camb/P32B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Habitat-trans_camb.xlsx
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3248787886357615</v>
+        <v>-0.2685833388583215</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9659845135544578</v>
+        <v>-0.8221527901323871</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.824682715371744</v>
+        <v>-1.624230147646319</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.3029562242046344</v>
+        <v>-0.273101022044906</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4658112626474271</v>
+        <v>-0.5779826422013512</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.019439088465113</v>
+        <v>-1.004082876151756</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.888576142465932</v>
+        <v>2.82104382850161</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.084496246527584</v>
+        <v>2.178776494847042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6580083766428693</v>
+        <v>0.7142868250103543</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>2.055255862958465</v>
+        <v>2.535206546912867</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.669667754640713</v>
+        <v>2.819074785517427</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.935464996596498</v>
+        <v>1.943559798907625</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.790625639390358</v>
+        <v>1.741556769427103</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7900026001825322</v>
+        <v>0.8567703748320341</v>
       </c>
     </row>
     <row r="7">
@@ -778,23 +778,23 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4427128459415238</v>
+        <v>-0.4426154792378497</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7826215851354829</v>
+        <v>-0.7328042685471959</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.6618604753837956</v>
+        <v>-0.4480340491911856</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7472039236454999</v>
+        <v>-0.8034326581108873</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.9430869010882099</v>
+        <v>-0.9420113904858456</v>
       </c>
     </row>
     <row r="9">
@@ -805,23 +805,23 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>11.16784014438769</v>
+        <v>11.50438213330542</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>9.997602302205504</v>
+        <v>8.36695383712906</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>10.01754856225569</v>
+        <v>11.33652857051092</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>8.780549049993994</v>
+        <v>9.379647689062034</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>6.797998410380001</v>
+        <v>7.852192433787435</v>
       </c>
     </row>
     <row r="10">
@@ -871,31 +871,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02411676297117811</v>
+        <v>-0.02495079090013396</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7637368099958547</v>
+        <v>0.6644030604055001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1208249840837363</v>
+        <v>0.221403112573634</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.029583818322445</v>
+        <v>-1.748034276445303</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.984451908285524</v>
+        <v>-1.920907118854653</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.247912091773029</v>
+        <v>-0.2384789636005632</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2352135538445083</v>
+        <v>-0.2437587892036096</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1776770752902715</v>
+        <v>0.2681339008661028</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4430754494935297</v>
+        <v>0.5527514365880434</v>
       </c>
     </row>
     <row r="12">
@@ -906,31 +906,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.143093448678208</v>
+        <v>2.987397195671676</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.217010747367883</v>
+        <v>4.253848065549724</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.840720253980213</v>
+        <v>4.092136254258339</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.046005813703097</v>
+        <v>1.038933335152254</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8631759304621582</v>
+        <v>1.211189420252056</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.267024275740797</v>
+        <v>4.449359043458167</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.942272059187578</v>
+        <v>2.045948090010518</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.6289364311671</v>
+        <v>2.727297637604753</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.380110497986702</v>
+        <v>3.379028187374174</v>
       </c>
     </row>
     <row r="13">
@@ -956,7 +956,7 @@
         <v>-0.210313155111549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.206850210143437</v>
+        <v>2.206850210143438</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.9847568440574274</v>
@@ -976,27 +976,27 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2128002432609259</v>
+        <v>-0.1826520576128361</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.305875179513056</v>
+        <v>0.2503713967138346</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.06511798625733342</v>
+        <v>-0.03026193778237438</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.5955248966264987</v>
+        <v>-0.4974624741779431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2923850825208444</v>
+        <v>-0.3468319989998032</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01280360579653646</v>
+        <v>0.08669159495916128</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1702280344085852</v>
+        <v>0.2110735543989257</v>
       </c>
     </row>
     <row r="15">
@@ -1007,25 +1007,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9.179044802685661</v>
+        <v>8.34212036564894</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12.38306172513462</v>
+        <v>10.85431676943885</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10.48495823062975</v>
+        <v>12.88668138348962</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4.357307622210942</v>
+        <v>4.387076611293041</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.118616789998462</v>
+        <v>6.187229051290244</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7.789105462214739</v>
+        <v>7.485322423108482</v>
       </c>
     </row>
     <row r="16">
@@ -1046,7 +1046,7 @@
         <v>0.1092032133051892</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.032257468458008</v>
+        <v>1.032257468458007</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.4819244649494566</v>
@@ -1075,29 +1075,29 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.267734319264991</v>
+        <v>0.169227843814676</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.188116521393787</v>
+        <v>-1.131224281039933</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.57751064517422</v>
+        <v>-0.4994611532502036</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.7219029862816746</v>
+        <v>0.7097837161705508</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2088569535756206</v>
+        <v>0.2049013506665618</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8622120355781628</v>
+        <v>-0.8735462830411649</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1728713231090012</v>
+        <v>0.1293806143149877</v>
       </c>
     </row>
     <row r="18">
@@ -1108,29 +1108,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.040036553109941</v>
+        <v>3.956435788800019</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.566731764725757</v>
+        <v>1.672915511948483</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.337938484199236</v>
+        <v>3.659846293903832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.184769077480309</v>
+        <v>2.425075167506629</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>6.669720871787009</v>
+        <v>6.881497908758935</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.878365216218022</v>
+        <v>2.882077218816234</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9907305060217449</v>
+        <v>0.9606012176274135</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.449082670695688</v>
+        <v>3.245379443485694</v>
       </c>
     </row>
     <row r="19">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2494498662807589</v>
+        <v>-0.230903399850844</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
@@ -1186,11 +1186,11 @@
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.157041601357517</v>
+        <v>-0.09792139574076812</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
       <c r="K20" s="6" t="n">
-        <v>-0.3737996419583548</v>
+        <v>-0.2722752242156857</v>
       </c>
     </row>
     <row r="21">
@@ -1201,17 +1201,19 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>13.02446098505421</v>
+        <v>14.6887885953919</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
-      <c r="I21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="n">
+        <v>14.25075946207874</v>
+      </c>
       <c r="J21" s="6" t="inlineStr"/>
       <c r="K21" s="6" t="n">
-        <v>15.70338912484846</v>
+        <v>14.44298680597637</v>
       </c>
     </row>
     <row r="22">
@@ -1261,31 +1263,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.95295486895071</v>
+        <v>1.840163589252458</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.250791195201916</v>
+        <v>0.4166402239318597</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9184515513478863</v>
+        <v>0.8260054920026648</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.60624011452832</v>
+        <v>-3.693072666249463</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.729173540238262</v>
+        <v>-2.448317436693178</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.945354855967036</v>
+        <v>-2.852439608867237</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3884668444958363</v>
+        <v>0.3352165150901478</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.0588291839496503</v>
+        <v>-0.09222317259615921</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.08013838307229815</v>
+        <v>-0.05726826302832352</v>
       </c>
     </row>
     <row r="24">
@@ -1296,31 +1298,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.730115275987062</v>
+        <v>5.878435601375684</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.456538471725375</v>
+        <v>3.209312447285393</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.65442866434681</v>
+        <v>4.577817027387184</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7118509234201983</v>
+        <v>0.5814431671426217</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.955511607936686</v>
+        <v>1.823623215162516</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.822836566268446</v>
+        <v>1.801438863449958</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.395267303704042</v>
+        <v>3.324771382654293</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.398137120816532</v>
+        <v>2.242544517412297</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.985043394724303</v>
+        <v>2.80026135478325</v>
       </c>
     </row>
     <row r="25">
@@ -1366,31 +1368,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.7989601087555532</v>
+        <v>0.9904492919789819</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07103188438864527</v>
+        <v>-0.0398944222329158</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3167556700178085</v>
+        <v>0.2308721616264796</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.9016776196404344</v>
+        <v>-0.8890065780304141</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7235454717621664</v>
+        <v>-0.6758618090093995</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8460636283339665</v>
+        <v>-0.8189285782395124</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1336114338023408</v>
+        <v>0.0959404870096673</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09764142211514246</v>
+        <v>-0.07837894846525709</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04718464670370752</v>
+        <v>-0.1287079776588818</v>
       </c>
     </row>
     <row r="27">
@@ -1401,31 +1403,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22.95014381912712</v>
+        <v>22.24406588545136</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13.28216706338501</v>
+        <v>10.49331310040799</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16.12440441226187</v>
+        <v>14.90832585404278</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.640308651384951</v>
+        <v>1.089646541876877</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.853905942778159</v>
+        <v>1.681936849686924</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.041354085671636</v>
+        <v>2.076810665682439</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>4.273356431006333</v>
+        <v>4.092272227277287</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.968337124438896</v>
+        <v>3.077253468424385</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.420968042940607</v>
+        <v>3.228991793890366</v>
       </c>
     </row>
     <row r="28">
@@ -1464,7 +1466,7 @@
         <v>0.8260987666669342</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.182162679671028</v>
+        <v>1.182162679671029</v>
       </c>
     </row>
     <row r="29">
@@ -1475,31 +1477,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.189181894097727</v>
+        <v>1.220934231332954</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5668922452048821</v>
+        <v>0.5060386906546149</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4910711399143008</v>
+        <v>0.5547993097546641</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.244898551999104</v>
+        <v>-1.22567460808155</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.9847991260586889</v>
+        <v>-0.9833612907376638</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.2389002988508663</v>
+        <v>-0.2022082386149481</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5655117285746131</v>
+        <v>0.6328687920935814</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2647045692407229</v>
+        <v>0.2365085503737366</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.529218930552702</v>
+        <v>0.48800628409644</v>
       </c>
     </row>
     <row r="30">
@@ -1510,31 +1512,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.897125848704773</v>
+        <v>2.965394803575033</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.119584740868879</v>
+        <v>2.152858144484673</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.238607454732324</v>
+        <v>2.390667335284377</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4117055861207077</v>
+        <v>0.53414699963245</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7998292157664973</v>
+        <v>0.8414963233812356</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.20289270494156</v>
+        <v>2.237679962852395</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.87647939821152</v>
+        <v>1.898264123681189</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.379749406723124</v>
+        <v>1.448425062789359</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.021033076719496</v>
+        <v>1.92011843616403</v>
       </c>
     </row>
     <row r="31">
@@ -1580,31 +1582,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.9584943831502485</v>
+        <v>0.9696986139763633</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4447614802367515</v>
+        <v>0.3470715669636288</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4036575464483247</v>
+        <v>0.4065799591141812</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7959958907380382</v>
+        <v>-0.7509465891655132</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6114265819625775</v>
+        <v>-0.6185293275986808</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2361992111076425</v>
+        <v>-0.2407464035197683</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4383415230862745</v>
+        <v>0.4801074021631918</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.176188904662528</v>
+        <v>0.1720126954318362</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3266151188460676</v>
+        <v>0.3878068995619885</v>
       </c>
     </row>
     <row r="33">
@@ -1615,31 +1617,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>5.772688768756611</v>
+        <v>5.294593494380378</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.968380612999252</v>
+        <v>3.640425885062984</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.384637634321572</v>
+        <v>4.26419316771578</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7785933244048925</v>
+        <v>1.560742880925895</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.370395414600334</v>
+        <v>1.518934407711969</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.462199100541165</v>
+        <v>3.628388681171029</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.801442246387229</v>
+        <v>2.962473725712704</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.149318228554129</v>
+        <v>2.21329363760147</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.823795837033994</v>
+        <v>3.044715455876448</v>
       </c>
     </row>
     <row r="34">
